--- a/document/Servey_테이블명세서.xlsx
+++ b/document/Servey_테이블명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505021\Documents\Workspace\React\react-777-miniServey\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505021\Documents\Workspace\React\react-777-miniservey\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358BECF-DDEB-48CA-890C-87D99B0B325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042DFB66-9BF3-4900-A71A-0AA53E81F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문제목" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>설문요약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qu_innerNum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1208,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5C832-673E-4431-B105-93A5A6194230}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1968,7 +1980,9 @@
       <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2383,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17458DC6-04B6-41E4-A2F2-0ACEC176048C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3149,7 +3163,9 @@
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14"/>
@@ -3159,13 +3175,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>28</v>
@@ -3173,16 +3189,10 @@
       <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3190,35 +3200,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3568,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92FD7C-03F3-4FB0-ABAB-B72415148D57}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4328,7 +4352,9 @@
       <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
@@ -4751,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8DA71-10D8-4F6C-BD72-C065F23A7121}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5511,7 +5537,9 @@
       <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
